--- a/MachineLearning/data/edge_ai_market/edge_ai_market.xlsx
+++ b/MachineLearning/data/edge_ai_market/edge_ai_market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="10440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Market" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>ロボティクス</t>
     <phoneticPr fontId="2"/>
@@ -695,6 +695,136 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>エッジAI国内市場</t>
+    <rPh sb="5" eb="7">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年　81.2憶米ドル</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オクベイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2032年　421億米ドル</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オクベイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AIビジネス国内市場</t>
+    <rPh sb="6" eb="8">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018年　5,301億円</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オクエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年　1兆2,000億円</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オクエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2030年　2兆1,286億円</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オクエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エッジAIプロセッサ市場</t>
+    <rPh sb="10" eb="12">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年　27.5憶米ドル</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オクベイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2032年　110億米ドル</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オクベイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エッジAIソリューション市場</t>
+    <rPh sb="12" eb="14">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2026年　431億円</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オクエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021年　76.6億円</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オクエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1038,11 +1168,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="583177296"/>
-        <c:axId val="583179648"/>
+        <c:axId val="436844600"/>
+        <c:axId val="436845384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="583177296"/>
+        <c:axId val="436844600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1215,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583179648"/>
+        <c:crossAx val="436845384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1093,7 +1223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583179648"/>
+        <c:axId val="436845384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1343,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583177296"/>
+        <c:crossAx val="436844600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1468,11 +1598,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1126910568"/>
-        <c:axId val="1126909000"/>
+        <c:axId val="438875448"/>
+        <c:axId val="438869568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1126910568"/>
+        <c:axId val="438875448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1645,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126909000"/>
+        <c:crossAx val="438869568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1523,7 +1653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1126909000"/>
+        <c:axId val="438869568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1773,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126910568"/>
+        <c:crossAx val="438875448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1894,11 +2024,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="580555704"/>
-        <c:axId val="588757352"/>
+        <c:axId val="438869960"/>
+        <c:axId val="438870352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="580555704"/>
+        <c:axId val="438869960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +2071,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588757352"/>
+        <c:crossAx val="438870352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1949,7 +2079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588757352"/>
+        <c:axId val="438870352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +2199,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580555704"/>
+        <c:crossAx val="438869960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2320,11 +2450,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="74803880"/>
-        <c:axId val="584494792"/>
+        <c:axId val="438871920"/>
+        <c:axId val="436844992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74803880"/>
+        <c:axId val="438871920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2497,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584494792"/>
+        <c:crossAx val="436844992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2375,7 +2505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584494792"/>
+        <c:axId val="436844992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2625,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74803880"/>
+        <c:crossAx val="438871920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2746,11 +2876,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1126912488"/>
-        <c:axId val="619346696"/>
+        <c:axId val="570517208"/>
+        <c:axId val="570518776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1126912488"/>
+        <c:axId val="570517208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +2923,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619346696"/>
+        <c:crossAx val="570518776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2801,7 +2931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619346696"/>
+        <c:axId val="570518776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,7 +3051,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126912488"/>
+        <c:crossAx val="570517208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3172,11 +3302,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1127639616"/>
-        <c:axId val="1127640008"/>
+        <c:axId val="570519560"/>
+        <c:axId val="570516816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1127639616"/>
+        <c:axId val="570519560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,7 +3349,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1127640008"/>
+        <c:crossAx val="570516816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3227,7 +3357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1127640008"/>
+        <c:axId val="570516816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3347,7 +3477,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1127639616"/>
+        <c:crossAx val="570519560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3702,11 +3832,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="619345520"/>
-        <c:axId val="617395960"/>
+        <c:axId val="570512896"/>
+        <c:axId val="570519168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="619345520"/>
+        <c:axId val="570512896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,7 +3879,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617395960"/>
+        <c:crossAx val="570519168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3757,7 +3887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617395960"/>
+        <c:axId val="570519168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3877,7 +4007,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619345520"/>
+        <c:crossAx val="570512896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4356,11 +4486,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1127485824"/>
-        <c:axId val="1127486216"/>
+        <c:axId val="570517992"/>
+        <c:axId val="570514464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1127485824"/>
+        <c:axId val="570517992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +4533,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1127486216"/>
+        <c:crossAx val="570514464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4411,7 +4541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1127486216"/>
+        <c:axId val="570514464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,7 +4661,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1127485824"/>
+        <c:crossAx val="570517992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4782,11 +4912,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="589889056"/>
-        <c:axId val="589893368"/>
+        <c:axId val="570513288"/>
+        <c:axId val="570515640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="589889056"/>
+        <c:axId val="570513288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4829,7 +4959,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589893368"/>
+        <c:crossAx val="570515640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4837,7 +4967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589893368"/>
+        <c:axId val="570515640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4957,7 +5087,991 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589889056"/>
+        <c:crossAx val="570513288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>エッジ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>AI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>国内市場</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Market!$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>エッジAI国内市場 [億円]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Market!$A$10:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Market!$S$10:$S$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7931.7513911726192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9659.7698675543415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11764.255999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13868.742132445657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16349.69592095525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19274.462972552363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22722.436226115849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26787.211077431704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31579.126030604239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37228.257841928331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43887.952459543711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51738.987606393966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60994.479999999974</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71905.670415758854</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84768.743629583216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99932.868367543619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="670475456"/>
+        <c:axId val="670474280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="670475456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670474280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="670474280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>金額 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>億円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670475456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>AI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ビジネス国内市場</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Market!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AIビジネス国内市場 [億円]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Market!$A$10:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Market!$R$10:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7177.6186838879876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9280.7017087424938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12891.259402477879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13848.714081831193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14877.280468302846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15982.240143359129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17169.266960061483</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18444.456177712113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19814.355760376871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21286.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22866.945636762015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24565.310662154901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26389.816004024538</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28349.830307628545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30455.418042655732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="437771712"/>
+        <c:axId val="437767400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="437771712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437767400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437767400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>金額 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>億円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437771712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5268,11 +6382,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="588787992"/>
-        <c:axId val="588788776"/>
+        <c:axId val="436844208"/>
+        <c:axId val="436846168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="588787992"/>
+        <c:axId val="436844208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,7 +6429,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588788776"/>
+        <c:crossAx val="436846168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5323,7 +6437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588788776"/>
+        <c:axId val="436846168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5443,7 +6557,995 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588787992"/>
+        <c:crossAx val="436844208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>エッジ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>AI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>プロセッサ市場</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Market!$T$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>エッジAIプロセッサ市場 [億円]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Market!$A$10:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Market!$T$10:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2887.4074741846171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3391.7560140208125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3984.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4576.6439859791872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5257.1834181013664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6038.9179442907298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6936.8951085688377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7968.4000000000033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9153.287971958378</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10514.366836202737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12077.835888581463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13873.790217137681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15936.800000000012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18306.575943916763</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21028.73367240548</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24155.671777162937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="673638376"/>
+        <c:axId val="673640728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="673638376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673640728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="673640728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>金額 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>億円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673638376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>エッジ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>AI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ソリューション市場</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Market!$U$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>エッジAIソリューション市場 [億円]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Market!$A$10:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Market!$U$10:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>44.98724106058588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.21275893941412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152.87207829346931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.96226314541039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305.08971699431606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>608.87335643456242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>860.15490528048656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1215.1401490296589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1716.6275199027446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2425.0783289817232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3425.9062222362459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4839.7749892413804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6837.1462693444264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9658.8310845702745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="584189792"/>
+        <c:axId val="584189400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="584189792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584189400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584189400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>金額 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>億円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584189792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5754,11 +7856,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="616940248"/>
-        <c:axId val="616941424"/>
+        <c:axId val="436841072"/>
+        <c:axId val="436841856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="616940248"/>
+        <c:axId val="436841072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5801,7 +7903,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616941424"/>
+        <c:crossAx val="436841856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5809,7 +7911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616941424"/>
+        <c:axId val="436841856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5929,7 +8031,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616940248"/>
+        <c:crossAx val="436841072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6240,11 +8342,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="623215224"/>
-        <c:axId val="623216792"/>
+        <c:axId val="436846560"/>
+        <c:axId val="436843816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="623215224"/>
+        <c:axId val="436846560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6287,7 +8389,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623216792"/>
+        <c:crossAx val="436843816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6295,7 +8397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="623216792"/>
+        <c:axId val="436843816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6415,7 +8517,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623215224"/>
+        <c:crossAx val="436846560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6726,11 +8828,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="623223848"/>
-        <c:axId val="623215616"/>
+        <c:axId val="436847736"/>
+        <c:axId val="436848520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="623223848"/>
+        <c:axId val="436847736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6773,7 +8875,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623215616"/>
+        <c:crossAx val="436848520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6781,7 +8883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="623215616"/>
+        <c:axId val="436848520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6901,7 +9003,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623223848"/>
+        <c:crossAx val="436847736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7212,11 +9314,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="623239136"/>
-        <c:axId val="623240312"/>
+        <c:axId val="438872704"/>
+        <c:axId val="438872312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="623239136"/>
+        <c:axId val="438872704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,7 +9361,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623240312"/>
+        <c:crossAx val="438872312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7267,7 +9369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="623240312"/>
+        <c:axId val="438872312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7387,7 +9489,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623239136"/>
+        <c:crossAx val="438872704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7698,11 +9800,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="622628936"/>
-        <c:axId val="622629328"/>
+        <c:axId val="438873880"/>
+        <c:axId val="438871528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="622628936"/>
+        <c:axId val="438873880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7745,7 +9847,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622629328"/>
+        <c:crossAx val="438871528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7753,7 +9855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622629328"/>
+        <c:axId val="438871528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7873,7 +9975,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622628936"/>
+        <c:crossAx val="438873880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8128,11 +10230,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="577130304"/>
-        <c:axId val="577134224"/>
+        <c:axId val="438875840"/>
+        <c:axId val="438874272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="577130304"/>
+        <c:axId val="438875840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8175,7 +10277,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577134224"/>
+        <c:crossAx val="438874272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8183,7 +10285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="577134224"/>
+        <c:axId val="438874272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8303,7 +10405,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577130304"/>
+        <c:crossAx val="438875840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8558,11 +10660,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1128167704"/>
-        <c:axId val="1128165352"/>
+        <c:axId val="438876624"/>
+        <c:axId val="438877016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1128167704"/>
+        <c:axId val="438876624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8605,7 +10707,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128165352"/>
+        <c:crossAx val="438877016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8613,7 +10715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1128165352"/>
+        <c:axId val="438877016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8733,7 +10835,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128167704"/>
+        <c:crossAx val="438876624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9177,7 +11279,167 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14024,7 +16286,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18592,6 +22866,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6310311</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="グラフ 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6310311</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="グラフ 19"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6310311</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="グラフ 20"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6310311</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="グラフ 21"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18950,8 +23352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219075" y="2066925"/>
-          <a:ext cx="4088562" cy="2000250"/>
+          <a:off x="416902" y="2058865"/>
+          <a:ext cx="4086364" cy="1978270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19112,6 +23514,962 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1355481</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フリーフォーム 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282212" y="2491154"/>
+          <a:ext cx="2842846" cy="586154"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2842846"/>
+            <a:gd name="connsiteY0" fmla="*/ 586154 h 586154"/>
+            <a:gd name="connsiteX1" fmla="*/ 1326173 w 2842846"/>
+            <a:gd name="connsiteY1" fmla="*/ 395654 h 586154"/>
+            <a:gd name="connsiteX2" fmla="*/ 2842846 w 2842846"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 586154"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2842846" h="586154">
+              <a:moveTo>
+                <a:pt x="0" y="586154"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="426182" y="539750"/>
+                <a:pt x="852365" y="493346"/>
+                <a:pt x="1326173" y="395654"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1799981" y="297962"/>
+                <a:pt x="2321413" y="148981"/>
+                <a:pt x="2842846" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1311519</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フリーフォーム 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21540000">
+          <a:off x="1260231" y="4769827"/>
+          <a:ext cx="2820865" cy="293077"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2820865"/>
+            <a:gd name="connsiteY0" fmla="*/ 293077 h 293077"/>
+            <a:gd name="connsiteX1" fmla="*/ 1230923 w 2820865"/>
+            <a:gd name="connsiteY1" fmla="*/ 190500 h 293077"/>
+            <a:gd name="connsiteX2" fmla="*/ 2505807 w 2820865"/>
+            <a:gd name="connsiteY2" fmla="*/ 43961 h 293077"/>
+            <a:gd name="connsiteX3" fmla="*/ 2820865 w 2820865"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 293077"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2820865" h="293077">
+              <a:moveTo>
+                <a:pt x="0" y="293077"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1230923" y="190500"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1648557" y="148981"/>
+                <a:pt x="2240817" y="75711"/>
+                <a:pt x="2505807" y="43961"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2770797" y="12211"/>
+                <a:pt x="2795831" y="6105"/>
+                <a:pt x="2820865" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124558</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1414096</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フリーフォーム 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362808" y="6726115"/>
+          <a:ext cx="2820865" cy="886558"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2820865"/>
+            <a:gd name="connsiteY0" fmla="*/ 886558 h 886558"/>
+            <a:gd name="connsiteX1" fmla="*/ 974480 w 2820865"/>
+            <a:gd name="connsiteY1" fmla="*/ 740019 h 886558"/>
+            <a:gd name="connsiteX2" fmla="*/ 1926980 w 2820865"/>
+            <a:gd name="connsiteY2" fmla="*/ 483577 h 886558"/>
+            <a:gd name="connsiteX3" fmla="*/ 2820865 w 2820865"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 886558"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2820865" h="886558">
+              <a:moveTo>
+                <a:pt x="0" y="886558"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="326658" y="846870"/>
+                <a:pt x="653317" y="807182"/>
+                <a:pt x="974480" y="740019"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1295643" y="672856"/>
+                <a:pt x="1619249" y="606913"/>
+                <a:pt x="1926980" y="483577"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2234711" y="360241"/>
+                <a:pt x="2527788" y="180120"/>
+                <a:pt x="2820865" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>622788</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1119602" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3392365" y="2220058"/>
+          <a:ext cx="1119602" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CAGR=7.1%</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>622788</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1119602" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3392365" y="4440115"/>
+          <a:ext cx="1119602" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CAGR=3.5%</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>622788</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1215076" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3392365" y="6462346"/>
+          <a:ext cx="1215076" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CAGR=11.6%</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1370134</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>996461</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="フリーフォーム 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5671038" y="3026019"/>
+          <a:ext cx="2688981" cy="490904"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2688981"/>
+            <a:gd name="connsiteY0" fmla="*/ 490904 h 490904"/>
+            <a:gd name="connsiteX1" fmla="*/ 1077058 w 2688981"/>
+            <a:gd name="connsiteY1" fmla="*/ 402981 h 490904"/>
+            <a:gd name="connsiteX2" fmla="*/ 2242039 w 2688981"/>
+            <a:gd name="connsiteY2" fmla="*/ 190500 h 490904"/>
+            <a:gd name="connsiteX3" fmla="*/ 2688981 w 2688981"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 490904"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2688981" h="490904">
+              <a:moveTo>
+                <a:pt x="0" y="490904"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="351692" y="471976"/>
+                <a:pt x="703385" y="453048"/>
+                <a:pt x="1077058" y="402981"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1450731" y="352914"/>
+                <a:pt x="1973385" y="257663"/>
+                <a:pt x="2242039" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2510693" y="123336"/>
+                <a:pt x="2599837" y="61668"/>
+                <a:pt x="2688981" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="38100">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1399441</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>131884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="フリーフォーム 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5700345" y="4645269"/>
+          <a:ext cx="2520463" cy="908538"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2535116"/>
+            <a:gd name="connsiteY0" fmla="*/ 915865 h 915865"/>
+            <a:gd name="connsiteX1" fmla="*/ 776654 w 2535116"/>
+            <a:gd name="connsiteY1" fmla="*/ 813288 h 915865"/>
+            <a:gd name="connsiteX2" fmla="*/ 1890346 w 2535116"/>
+            <a:gd name="connsiteY2" fmla="*/ 556846 h 915865"/>
+            <a:gd name="connsiteX3" fmla="*/ 2535116 w 2535116"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 915865"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2520463"/>
+            <a:gd name="connsiteY0" fmla="*/ 813288 h 813288"/>
+            <a:gd name="connsiteX1" fmla="*/ 776654 w 2520463"/>
+            <a:gd name="connsiteY1" fmla="*/ 710711 h 813288"/>
+            <a:gd name="connsiteX2" fmla="*/ 1890346 w 2520463"/>
+            <a:gd name="connsiteY2" fmla="*/ 454269 h 813288"/>
+            <a:gd name="connsiteX3" fmla="*/ 2520463 w 2520463"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 813288"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2520463"/>
+            <a:gd name="connsiteY0" fmla="*/ 813288 h 813288"/>
+            <a:gd name="connsiteX1" fmla="*/ 776654 w 2520463"/>
+            <a:gd name="connsiteY1" fmla="*/ 710711 h 813288"/>
+            <a:gd name="connsiteX2" fmla="*/ 1758461 w 2520463"/>
+            <a:gd name="connsiteY2" fmla="*/ 498231 h 813288"/>
+            <a:gd name="connsiteX3" fmla="*/ 2520463 w 2520463"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 813288"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2520463"/>
+            <a:gd name="connsiteY0" fmla="*/ 813288 h 813288"/>
+            <a:gd name="connsiteX1" fmla="*/ 776654 w 2520463"/>
+            <a:gd name="connsiteY1" fmla="*/ 710711 h 813288"/>
+            <a:gd name="connsiteX2" fmla="*/ 1758461 w 2520463"/>
+            <a:gd name="connsiteY2" fmla="*/ 498231 h 813288"/>
+            <a:gd name="connsiteX3" fmla="*/ 2520463 w 2520463"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 813288"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2520463"/>
+            <a:gd name="connsiteY0" fmla="*/ 813288 h 813288"/>
+            <a:gd name="connsiteX1" fmla="*/ 776654 w 2520463"/>
+            <a:gd name="connsiteY1" fmla="*/ 710711 h 813288"/>
+            <a:gd name="connsiteX2" fmla="*/ 1758461 w 2520463"/>
+            <a:gd name="connsiteY2" fmla="*/ 498231 h 813288"/>
+            <a:gd name="connsiteX3" fmla="*/ 2520463 w 2520463"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 813288"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2520463"/>
+            <a:gd name="connsiteY0" fmla="*/ 908538 h 908538"/>
+            <a:gd name="connsiteX1" fmla="*/ 776654 w 2520463"/>
+            <a:gd name="connsiteY1" fmla="*/ 710711 h 908538"/>
+            <a:gd name="connsiteX2" fmla="*/ 1758461 w 2520463"/>
+            <a:gd name="connsiteY2" fmla="*/ 498231 h 908538"/>
+            <a:gd name="connsiteX3" fmla="*/ 2520463 w 2520463"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 908538"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2520463"/>
+            <a:gd name="connsiteY0" fmla="*/ 908538 h 908538"/>
+            <a:gd name="connsiteX1" fmla="*/ 776654 w 2520463"/>
+            <a:gd name="connsiteY1" fmla="*/ 791307 h 908538"/>
+            <a:gd name="connsiteX2" fmla="*/ 1758461 w 2520463"/>
+            <a:gd name="connsiteY2" fmla="*/ 498231 h 908538"/>
+            <a:gd name="connsiteX3" fmla="*/ 2520463 w 2520463"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 908538"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2520463"/>
+            <a:gd name="connsiteY0" fmla="*/ 908538 h 908538"/>
+            <a:gd name="connsiteX1" fmla="*/ 776654 w 2520463"/>
+            <a:gd name="connsiteY1" fmla="*/ 791307 h 908538"/>
+            <a:gd name="connsiteX2" fmla="*/ 1758461 w 2520463"/>
+            <a:gd name="connsiteY2" fmla="*/ 498231 h 908538"/>
+            <a:gd name="connsiteX3" fmla="*/ 2520463 w 2520463"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 908538"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2520463" h="908538">
+              <a:moveTo>
+                <a:pt x="0" y="908538"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="230798" y="887167"/>
+                <a:pt x="329712" y="881672"/>
+                <a:pt x="776654" y="791307"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1223596" y="700942"/>
+                <a:pt x="1467826" y="630115"/>
+                <a:pt x="1758461" y="498231"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2049096" y="366347"/>
+                <a:pt x="2344616" y="210649"/>
+                <a:pt x="2520463" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="38100">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205153</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1215076" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7568711" y="2725615"/>
+          <a:ext cx="1215076" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="88900">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CAGR=34.7%</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="88900">
+                <a:schemeClr val="bg1"/>
+              </a:glow>
+            </a:effectLst>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205153</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1215076" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7568711" y="4374173"/>
+          <a:ext cx="1215076" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="88900">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CAGR=29.4%</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="88900">
+                <a:schemeClr val="bg1"/>
+              </a:glow>
+            </a:effectLst>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19402,23 +24760,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="T13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M60" sqref="M60"/>
+      <selection pane="bottomRight" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16" width="85.625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="21" width="85.625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19464,8 +24824,20 @@
       <c r="P1" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -19514,8 +24886,20 @@
       <c r="P2" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -19561,8 +24945,20 @@
       <c r="P3" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="1" t="s">
         <v>41</v>
       </c>
@@ -19587,8 +24983,19 @@
       <c r="P4" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f>"2022年　"&amp;81.2*144.88&amp;"億円　※2023/8/14レート"</f>
+        <v>2022年　11764.256億円　※2023/8/14レート</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f>"2022年　"&amp;27.5*144.88&amp;"億円　※2023/8/14レート"</f>
+        <v>2022年　3984.2億円　※2023/8/14レート</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -19610,8 +25017,16 @@
       <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="S5" s="1" t="str">
+        <f>"2032年　"&amp;421*144.88&amp;"億円　※2023/8/14レート"</f>
+        <v>2032年　60994.48億円　※2023/8/14レート</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f>"2032年　"&amp;110*144.88&amp;"億円　※2023/8/14レート"</f>
+        <v>2032年　15936.8億円　※2023/8/14レート</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>POWER(412/83, 1/10)-1</f>
         <v>0.17376704604308246</v>
@@ -19672,8 +25087,24 @@
         <f>POWER(95/1, 1/8)-1</f>
         <v>0.76691415789000472</v>
       </c>
+      <c r="R6" s="1">
+        <f>POWER(12000/5301, 1/4)-1</f>
+        <v>0.22660819093812545</v>
+      </c>
+      <c r="S6" s="1">
+        <f>POWER(60994.48/11764.256, 1/10)-1</f>
+        <v>0.1788881619411935</v>
+      </c>
+      <c r="T6" s="1">
+        <f>POWER(15936.8/3984.2, 1/10)-1</f>
+        <v>0.1486983549970351</v>
+      </c>
+      <c r="U6" s="1">
+        <f>POWER(431/76.6, 1/5)-1</f>
+        <v>0.41269920286441408</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I7" s="1">
         <f>POWER(6166/6176, 1/15)-1</f>
         <v>-1.080263819646099E-4</v>
@@ -19706,8 +25137,22 @@
         <f>POWER(774/95, 1/15)-1</f>
         <v>0.15009705231612491</v>
       </c>
+      <c r="R7" s="1">
+        <f>POWER(21286/12000, 1/8)-1</f>
+        <v>7.4271616873156532E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <f>POWER(2847/3, 1/23)-1</f>
+        <v>0.34724430691346142</v>
+      </c>
+      <c r="L8" s="1">
+        <f>POWER(377/1, 1/23)-1</f>
+        <v>0.29424006926071433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -19739,168 +25184,215 @@
         <v>スマートカメラ [万米ドル]</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>I1&amp;" [万台]"</f>
+        <f t="shared" ref="I9:P9" si="0">I1&amp;" [万台]"</f>
         <v>自動運転　レベル2 [万台]</v>
       </c>
       <c r="J9" s="3" t="str">
-        <f>J1&amp;" [万台]"</f>
+        <f t="shared" si="0"/>
         <v>自動運転　レベル3 [万台]</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f>K1&amp;" [万台]"</f>
+        <f t="shared" si="0"/>
         <v>自動運転　レベル4~5 [万台]</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f>L1&amp;" [万台]"</f>
+        <f t="shared" si="0"/>
         <v>自動運転　日本 [万台]</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f>M1&amp;" [万台]"</f>
+        <f t="shared" si="0"/>
         <v>自動運転　欧州 [万台]</v>
       </c>
       <c r="N9" s="3" t="str">
-        <f>N1&amp;" [万台]"</f>
+        <f t="shared" si="0"/>
         <v>自動運転　北米 [万台]</v>
       </c>
       <c r="O9" s="3" t="str">
-        <f>O1&amp;" [万台]"</f>
+        <f t="shared" si="0"/>
         <v>自動運転　中国 [万台]</v>
       </c>
       <c r="P9" s="3" t="str">
-        <f>P1&amp;" [万台]"</f>
+        <f t="shared" si="0"/>
         <v>自動運転　その他 [万台]</v>
       </c>
+      <c r="R9" s="3" t="str">
+        <f>R1&amp;" [億円]"</f>
+        <v>AIビジネス国内市場 [億円]</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <f>S1&amp;" [億円]"</f>
+        <v>エッジAI国内市場 [億円]</v>
+      </c>
+      <c r="T9" s="3" t="str">
+        <f>T1&amp;" [億円]"</f>
+        <v>エッジAIプロセッサ市場 [億円]</v>
+      </c>
+      <c r="U9" s="3" t="str">
+        <f>U1&amp;" [億円]"</f>
+        <v>エッジAIソリューション市場 [億円]</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2020</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" ref="B10:C11" si="0">B11*(1-B$6)</f>
+        <f t="shared" ref="B10:C11" si="1">B11*(1-B$6)</f>
         <v>56.660854218963024</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25913.389215636758</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:D11" si="1">D11*(1-D$6)</f>
+        <f t="shared" ref="D10:D11" si="2">D11*(1-D$6)</f>
         <v>15385.858298932435</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E11" si="2">E11*(1-E$6)</f>
+        <f t="shared" ref="E10:E11" si="3">E11*(1-E$6)</f>
         <v>6572.3547952009376</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:F11" si="3">F11*(1-F$6)</f>
+        <f t="shared" ref="F10:F11" si="4">F11*(1-F$6)</f>
         <v>9617.109017204315</v>
       </c>
       <c r="G10" s="4">
-        <f>G11*(1-G$6)</f>
+        <f t="shared" ref="G10:U10" si="5">G11*(1-G$6)</f>
         <v>2205789.1869639256</v>
       </c>
       <c r="H10" s="4">
-        <f>H11*(1-H$6)</f>
+        <f t="shared" si="5"/>
         <v>244584.73842750906</v>
       </c>
       <c r="I10" s="4">
-        <f>I11*(1-I$6)</f>
+        <f t="shared" si="5"/>
         <v>3123.9270190871421</v>
       </c>
       <c r="J10" s="4">
-        <f>J11*(1-J$6)</f>
+        <f t="shared" si="5"/>
         <v>1.4271831284992664E-2</v>
       </c>
       <c r="K10" s="4">
-        <f>K11*(1-K$6)</f>
+        <f t="shared" si="5"/>
         <v>1.2801209218584553</v>
       </c>
       <c r="L10" s="4">
-        <f>L11*(1-L$6)</f>
+        <f t="shared" si="5"/>
         <v>5.2202351737485664E-2</v>
       </c>
       <c r="M10" s="4">
-        <f>M11*(1-M$6)</f>
+        <f t="shared" si="5"/>
         <v>3.10664266599118E-2</v>
       </c>
       <c r="N10" s="4">
-        <f>N11*(1-N$6)</f>
+        <f t="shared" si="5"/>
         <v>0.60387538630162885</v>
       </c>
       <c r="O10" s="4">
-        <f>O11*(1-O$6)</f>
+        <f t="shared" si="5"/>
         <v>0.44713614470622842</v>
       </c>
       <c r="P10" s="4">
-        <f>P11*(1-P$6)</f>
+        <f t="shared" si="5"/>
         <v>5.4329009792125647E-2</v>
       </c>
+      <c r="R10" s="4">
+        <f t="shared" si="5"/>
+        <v>7177.6186838879876</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="5"/>
+        <v>7931.7513911726192</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="5"/>
+        <v>2887.4074741846171</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="5"/>
+        <v>44.98724106058588</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.57733517842415</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26549.833487353913</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16558.869614847346</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7606.8594959101547</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9962.2077569716912</v>
       </c>
       <c r="G11" s="5">
         <v>2558000</v>
       </c>
       <c r="H11" s="4">
-        <f>H12*(1-H$6)</f>
+        <f t="shared" ref="H11:U11" si="6">H12*(1-H$6)</f>
         <v>276664.85278862074</v>
       </c>
       <c r="I11" s="4">
-        <f>I12*(1-I$6)</f>
+        <f t="shared" si="6"/>
         <v>3357.2501671556156</v>
       </c>
       <c r="J11" s="4">
-        <f>J12*(1-J$6)</f>
+        <f t="shared" si="6"/>
         <v>0.20691905145485756</v>
       </c>
       <c r="K11" s="4">
-        <f>K12*(1-K$6)</f>
+        <f t="shared" si="6"/>
         <v>3.394272867158163</v>
       </c>
       <c r="L11" s="4">
-        <f>L12*(1-L$6)</f>
+        <f t="shared" si="6"/>
         <v>0.22847833975562248</v>
       </c>
       <c r="M11" s="4">
-        <f>M12*(1-M$6)</f>
+        <f t="shared" si="6"/>
         <v>0.24926462508712222</v>
       </c>
       <c r="N11" s="4">
-        <f>N12*(1-N$6)</f>
+        <f t="shared" si="6"/>
         <v>1.73763544263696</v>
       </c>
       <c r="O11" s="4">
-        <f>O12*(1-O$6)</f>
+        <f t="shared" si="6"/>
         <v>1.3373647889879985</v>
       </c>
       <c r="P11" s="4">
-        <f>P12*(1-P$6)</f>
+        <f t="shared" si="6"/>
         <v>0.23308584210999528</v>
       </c>
+      <c r="R11" s="4">
+        <f t="shared" si="6"/>
+        <v>9280.7017087424938</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="6"/>
+        <v>9659.7698675543415</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="6"/>
+        <v>3391.7560140208125</v>
+      </c>
+      <c r="U11" s="5">
+        <v>76.599999999999994</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2022</v>
       </c>
@@ -19924,7 +25416,7 @@
         <v>10319.689962495355</v>
       </c>
       <c r="G12" s="4">
-        <f>G11*(1+G$6)</f>
+        <f t="shared" ref="G12:G35" si="7">G11*(1+G$6)</f>
         <v>2910210.8130360744</v>
       </c>
       <c r="H12" s="5">
@@ -19955,13 +25447,26 @@
       <c r="P12" s="5">
         <v>1</v>
       </c>
+      <c r="R12" s="5">
+        <v>12000</v>
+      </c>
+      <c r="S12" s="5">
+        <v>11764.255999999999</v>
+      </c>
+      <c r="T12" s="5">
+        <v>3984.2</v>
+      </c>
+      <c r="U12" s="4">
+        <f>U11*(1+U$6)</f>
+        <v>108.21275893941412</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2023</v>
       </c>
       <c r="B13" s="4">
-        <f>B12*(1+B$6)</f>
+        <f t="shared" ref="B13:B35" si="8">B12*(1+B$6)</f>
         <v>97.42266482157585</v>
       </c>
       <c r="C13" s="5">
@@ -19977,1473 +25482,1841 @@
         <v>10690</v>
       </c>
       <c r="G13" s="4">
-        <f>G12*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>3310917.50442224</v>
       </c>
       <c r="H13" s="4">
         <v>354000</v>
       </c>
       <c r="I13" s="4">
-        <f>I12*(1+I$6)</f>
+        <f t="shared" ref="I13:P20" si="9">I12*(1+I$6)</f>
         <v>3858.7498328443844</v>
       </c>
       <c r="J13" s="4">
-        <f>J12*(1+J$6)</f>
+        <f t="shared" si="9"/>
         <v>5.7930809485451427</v>
       </c>
       <c r="K13" s="4">
-        <f>K12*(1+K$6)</f>
+        <f t="shared" si="9"/>
         <v>14.605727132841837</v>
       </c>
       <c r="L13" s="4">
-        <f>L12*(1+L$6)</f>
+        <f t="shared" si="9"/>
         <v>1.7715216602443775</v>
       </c>
       <c r="M13" s="4">
-        <f>M12*(1+M$6)</f>
+        <f t="shared" si="9"/>
         <v>3.7507353749128778</v>
       </c>
       <c r="N13" s="4">
-        <f>N12*(1+N$6)</f>
+        <f t="shared" si="9"/>
         <v>8.2623645573630391</v>
       </c>
       <c r="O13" s="4">
-        <f>O12*(1+O$6)</f>
+        <f t="shared" si="9"/>
         <v>6.6626352110120015</v>
       </c>
       <c r="P13" s="4">
-        <f>P12*(1+P$6)</f>
+        <f t="shared" si="9"/>
         <v>1.7669141578900047</v>
       </c>
+      <c r="R13" s="4">
+        <f>R12*(1+R$7)</f>
+        <v>12891.259402477879</v>
+      </c>
+      <c r="S13" s="4">
+        <f>S12*(1+S$6)</f>
+        <v>13868.742132445657</v>
+      </c>
+      <c r="T13" s="4">
+        <f>T12*(1+T$6)</f>
+        <v>4576.6439859791872</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" ref="U13:U35" si="10">U12*(1+U$6)</f>
+        <v>152.87207829346931</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2024</v>
       </c>
       <c r="B14" s="4">
-        <f>B13*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>114.35151350526641</v>
       </c>
       <c r="C14" s="4">
-        <f>C13*(1+C$6)</f>
+        <f t="shared" ref="C14:C35" si="11">C13*(1+C$6)</f>
         <v>28538.090888826322</v>
       </c>
       <c r="D14" s="4">
-        <f>D13*(1+D$6)</f>
+        <f t="shared" ref="D14:D35" si="12">D13*(1+D$6)</f>
         <v>20538.689183655089</v>
       </c>
       <c r="E14" s="4">
-        <f>E13*(1+E$6)</f>
+        <f t="shared" ref="E14:E35" si="13">E13*(1+E$6)</f>
         <v>11575.802236244095</v>
       </c>
       <c r="F14" s="4">
-        <f>F13*(1+F$6)</f>
+        <f t="shared" ref="F14:F35" si="14">F13*(1+F$6)</f>
         <v>11060.310037504645</v>
       </c>
       <c r="G14" s="4">
-        <f>G13*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>3766797.4677247917</v>
       </c>
       <c r="H14" s="4">
-        <f>H13*(1+H$6)</f>
+        <f t="shared" ref="H14:H35" si="15">H13*(1+H$6)</f>
         <v>395047.35520022881</v>
       </c>
       <c r="I14" s="4">
-        <f>I13*(1+I$6)</f>
+        <f t="shared" si="9"/>
         <v>4126.9263504646797</v>
       </c>
       <c r="J14" s="4">
-        <f>J13*(1+J$6)</f>
+        <f t="shared" si="9"/>
         <v>11.186595625465563</v>
       </c>
       <c r="K14" s="4">
-        <f>K13*(1+K$6)</f>
+        <f t="shared" si="9"/>
         <v>23.703029453225803</v>
       </c>
       <c r="L14" s="4">
-        <f>L13*(1+L$6)</f>
+        <f t="shared" si="9"/>
         <v>3.1382889927149957</v>
       </c>
       <c r="M14" s="4">
-        <f>M13*(1+M$6)</f>
+        <f t="shared" si="9"/>
         <v>7.034007926311423</v>
       </c>
       <c r="N14" s="4">
-        <f>N13*(1+N$6)</f>
+        <f t="shared" si="9"/>
         <v>13.653333615753787</v>
       </c>
       <c r="O14" s="4">
-        <f>O13*(1+O$6)</f>
+        <f t="shared" si="9"/>
         <v>11.097676988754234</v>
       </c>
       <c r="P14" s="4">
-        <f>P13*(1+P$6)</f>
+        <f t="shared" si="9"/>
         <v>3.1219856413521447</v>
       </c>
+      <c r="R14" s="4">
+        <f t="shared" ref="R14:R35" si="16">R13*(1+R$7)</f>
+        <v>13848.714081831193</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" ref="R14:U35" si="17">S13*(1+S$6)</f>
+        <v>16349.69592095525</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="17"/>
+        <v>5257.1834181013664</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="10"/>
+        <v>215.96226314541039</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2025</v>
       </c>
       <c r="B15" s="4">
-        <f>B14*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>134.22203821763222</v>
       </c>
       <c r="C15" s="4">
-        <f>C14*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>29222.197042659202</v>
       </c>
       <c r="D15" s="4">
-        <f>D14*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>21993.626349467704</v>
       </c>
       <c r="E15" s="4">
-        <f>E14*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>13150.068440886535</v>
       </c>
       <c r="F15" s="4">
-        <f>F14*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>11443.447906990272</v>
       </c>
       <c r="G15" s="4">
-        <f>G14*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>4285447.5062899115</v>
       </c>
       <c r="H15" s="4">
-        <f>H14*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>440854.27358953602</v>
       </c>
       <c r="I15" s="4">
-        <f>I14*(1+I$6)</f>
+        <f t="shared" si="9"/>
         <v>4413.7406776653734</v>
       </c>
       <c r="J15" s="4">
-        <f>J14*(1+J$6)</f>
+        <f t="shared" si="9"/>
         <v>21.60161799898766</v>
       </c>
       <c r="K15" s="4">
-        <f>K14*(1+K$6)</f>
+        <f t="shared" si="9"/>
         <v>38.46666449061437</v>
       </c>
       <c r="L15" s="4">
-        <f>L14*(1+L$6)</f>
+        <f t="shared" si="9"/>
         <v>5.5595469267011248</v>
       </c>
       <c r="M15" s="4">
-        <f>M14*(1+M$6)</f>
+        <f t="shared" si="9"/>
         <v>13.191351178316914</v>
       </c>
       <c r="N15" s="4">
-        <f>N14*(1+N$6)</f>
+        <f t="shared" si="9"/>
         <v>22.561763951331493</v>
       </c>
       <c r="O15" s="4">
-        <f>O14*(1+O$6)</f>
+        <f t="shared" si="9"/>
         <v>18.484943366427899</v>
       </c>
       <c r="P15" s="4">
-        <f>P14*(1+P$6)</f>
+        <f t="shared" si="9"/>
         <v>5.5162806304344114</v>
       </c>
+      <c r="R15" s="4">
+        <f t="shared" si="16"/>
+        <v>14877.280468302846</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="17"/>
+        <v>19274.462972552363</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="17"/>
+        <v>6038.9179442907298</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="10"/>
+        <v>305.08971699431606</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2026</v>
       </c>
       <c r="B16" s="4">
-        <f>B15*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>157.5454053125919</v>
       </c>
       <c r="C16" s="4">
-        <f>C15*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>29922.702374402583</v>
       </c>
       <c r="D16" s="4">
-        <f>D15*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>23551.629594012717</v>
       </c>
       <c r="E16" s="4">
-        <f>E15*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>14938.429015189131</v>
       </c>
       <c r="F16" s="4">
-        <f>F15*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>11839.857974681574</v>
       </c>
       <c r="G16" s="4">
-        <f>G15*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>4875510.4267018689</v>
       </c>
       <c r="H16" s="4">
-        <f>H15*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>491972.64070696128</v>
       </c>
       <c r="I16" s="4">
-        <f>I15*(1+I$6)</f>
+        <f t="shared" si="9"/>
         <v>4720.4881103546895</v>
       </c>
       <c r="J16" s="4">
-        <f>J15*(1+J$6)</f>
+        <f t="shared" si="9"/>
         <v>41.71330722922842</v>
       </c>
       <c r="K16" s="4">
-        <f>K15*(1+K$6)</f>
+        <f t="shared" si="9"/>
         <v>62.425956140054438</v>
       </c>
       <c r="L16" s="4">
-        <f>L15*(1+L$6)</f>
+        <f t="shared" si="9"/>
         <v>9.8488578017961039</v>
       </c>
       <c r="M16" s="4">
-        <f>M15*(1+M$6)</f>
+        <f t="shared" si="9"/>
         <v>24.738633753705962</v>
       </c>
       <c r="N16" s="4">
-        <f>N15*(1+N$6)</f>
+        <f t="shared" si="9"/>
         <v>37.282703764614482</v>
       </c>
       <c r="O16" s="4">
-        <f>O15*(1+O$6)</f>
+        <f t="shared" si="9"/>
         <v>30.789608636681312</v>
       </c>
       <c r="P16" s="4">
-        <f>P15*(1+P$6)</f>
+        <f t="shared" si="9"/>
         <v>9.7467943448089631</v>
       </c>
+      <c r="R16" s="4">
+        <f t="shared" si="16"/>
+        <v>15982.240143359129</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="17"/>
+        <v>22722.436226115849</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="17"/>
+        <v>6936.8951085688377</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="10"/>
+        <v>431</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2027</v>
       </c>
       <c r="B17" s="4">
-        <f>B16*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>184.92160501142115</v>
       </c>
       <c r="C17" s="5">
-        <f>C16*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>30640.000000000004</v>
       </c>
       <c r="D17" s="5">
-        <f>D16*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>25220.000000000004</v>
       </c>
       <c r="E17" s="5">
-        <f>E16*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>16970</v>
       </c>
       <c r="F17" s="5">
-        <f>F16*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>12250.000000000004</v>
       </c>
       <c r="G17" s="4">
-        <f>G16*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>5546819.0628842469</v>
       </c>
       <c r="H17" s="4">
-        <f>H16*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>549018.33486485167</v>
       </c>
       <c r="I17" s="4">
-        <f>I16*(1+I$6)</f>
+        <f t="shared" si="9"/>
         <v>5048.5539652924226</v>
       </c>
       <c r="J17" s="4">
-        <f>J16*(1+J$6)</f>
+        <f t="shared" si="9"/>
         <v>80.54952180348451</v>
       </c>
       <c r="K17" s="4">
-        <f>K16*(1+K$6)</f>
+        <f t="shared" si="9"/>
         <v>101.30849793204307</v>
       </c>
       <c r="L17" s="4">
-        <f>L16*(1+L$6)</f>
+        <f t="shared" si="9"/>
         <v>17.447464924548626</v>
       </c>
       <c r="M17" s="4">
-        <f>M16*(1+M$6)</f>
+        <f t="shared" si="9"/>
         <v>46.394034373519354</v>
       </c>
       <c r="N17" s="4">
-        <f>N16*(1+N$6)</f>
+        <f t="shared" si="9"/>
         <v>61.608658037483252</v>
       </c>
       <c r="O17" s="4">
-        <f>O16*(1+O$6)</f>
+        <f t="shared" si="9"/>
         <v>51.284982659008037</v>
       </c>
       <c r="P17" s="4">
-        <f>P16*(1+P$6)</f>
+        <f t="shared" si="9"/>
         <v>17.22174892188519</v>
       </c>
+      <c r="R17" s="4">
+        <f t="shared" si="16"/>
+        <v>17169.266960061483</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="17"/>
+        <v>26787.211077431704</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="17"/>
+        <v>7968.4000000000033</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="10"/>
+        <v>608.87335643456242</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2028</v>
       </c>
       <c r="B18" s="4">
-        <f>B17*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>217.05488606380149</v>
       </c>
       <c r="C18" s="4">
-        <f>C17*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>31374.492459046953</v>
       </c>
       <c r="D18" s="4">
-        <f>D17*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>27006.555850457844</v>
       </c>
       <c r="E18" s="4">
-        <f>E17*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>19277.857109819655</v>
       </c>
       <c r="F18" s="4">
-        <f>F17*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>12674.349668796254</v>
       </c>
       <c r="G18" s="4">
-        <f>G17*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>6310560.1308680065</v>
       </c>
       <c r="H18" s="4">
-        <f>H17*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>612678.64730167575</v>
       </c>
       <c r="I18" s="4">
-        <f>I17*(1+I$6)</f>
+        <f t="shared" si="9"/>
         <v>5399.419836385252</v>
       </c>
       <c r="J18" s="4">
-        <f>J17*(1+J$6)</f>
+        <f t="shared" si="9"/>
         <v>155.54330005806256</v>
       </c>
       <c r="K18" s="4">
-        <f>K17*(1+K$6)</f>
+        <f t="shared" si="9"/>
         <v>164.4093641148325</v>
       </c>
       <c r="L18" s="4">
-        <f>L17*(1+L$6)</f>
+        <f t="shared" si="9"/>
         <v>30.908562030191923</v>
       </c>
       <c r="M18" s="4">
-        <f>M17*(1+M$6)</f>
+        <f t="shared" si="9"/>
         <v>87.005872954841522</v>
       </c>
       <c r="N18" s="4">
-        <f>N17*(1+N$6)</f>
+        <f t="shared" si="9"/>
         <v>101.80663851912024</v>
       </c>
       <c r="O18" s="4">
-        <f>O17*(1+O$6)</f>
+        <f t="shared" si="9"/>
         <v>85.423282815011717</v>
       </c>
       <c r="P18" s="4">
-        <f>P17*(1+P$6)</f>
+        <f t="shared" si="9"/>
         <v>30.429351993705868</v>
       </c>
+      <c r="R18" s="4">
+        <f t="shared" si="16"/>
+        <v>18444.456177712113</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="17"/>
+        <v>31579.126030604239</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="17"/>
+        <v>9153.287971958378</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="10"/>
+        <v>860.15490528048656</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2029</v>
       </c>
       <c r="B19" s="4">
-        <f>B18*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>254.77187244432611</v>
       </c>
       <c r="C19" s="4">
-        <f>C18*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>32126.591940691709</v>
       </c>
       <c r="D19" s="4">
-        <f>D18*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>28919.669266609781</v>
       </c>
       <c r="E19" s="4">
-        <f>E18*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>21899.574233743326</v>
       </c>
       <c r="F19" s="4">
-        <f>F18*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>13113.39914505434</v>
       </c>
       <c r="G19" s="4">
-        <f>G18*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>7179460.6447093114</v>
       </c>
       <c r="H19" s="4">
-        <f>H18*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>683720.5627236747</v>
       </c>
       <c r="I19" s="4">
-        <f>I18*(1+I$6)</f>
+        <f t="shared" si="9"/>
         <v>5774.6702857838818</v>
       </c>
       <c r="J19" s="4">
-        <f>J18*(1+J$6)</f>
+        <f t="shared" si="9"/>
         <v>300.35830941340089</v>
       </c>
       <c r="K19" s="4">
-        <f>K18*(1+K$6)</f>
+        <f t="shared" si="9"/>
         <v>266.81314559392024</v>
       </c>
       <c r="L19" s="4">
-        <f>L18*(1+L$6)</f>
+        <f t="shared" si="9"/>
         <v>54.755187123491922</v>
       </c>
       <c r="M19" s="4">
-        <f>M18*(1+M$6)</f>
+        <f t="shared" si="9"/>
         <v>163.16800275844986</v>
       </c>
       <c r="N19" s="4">
-        <f>N18*(1+N$6)</f>
+        <f t="shared" si="9"/>
         <v>168.23271236092998</v>
       </c>
       <c r="O19" s="4">
-        <f>O18*(1+O$6)</f>
+        <f t="shared" si="9"/>
         <v>142.28604298088337</v>
       </c>
       <c r="P19" s="4">
-        <f>P18*(1+P$6)</f>
+        <f t="shared" si="9"/>
         <v>53.766052853097342</v>
       </c>
+      <c r="R19" s="4">
+        <f t="shared" si="16"/>
+        <v>19814.355760376871</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="17"/>
+        <v>37228.257841928331</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="17"/>
+        <v>10514.366836202737</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="10"/>
+        <v>1215.1401490296589</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2030</v>
       </c>
       <c r="B20" s="4">
-        <f>B19*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>299.04282813384168</v>
       </c>
       <c r="C20" s="4">
-        <f>C19*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>32896.72051495139</v>
       </c>
       <c r="D20" s="4">
-        <f>D19*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>30968.305441136643</v>
       </c>
       <c r="E20" s="4">
-        <f>E19*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>24877.835170535775</v>
       </c>
       <c r="F20" s="4">
-        <f>F19*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>13567.657641707143</v>
       </c>
       <c r="G20" s="5">
-        <f>G19*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>8167999.9999999944</v>
       </c>
       <c r="H20" s="5">
-        <f>H19*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>762999.99999999953</v>
       </c>
       <c r="I20" s="5">
-        <f>I19*(1+I$6)</f>
+        <f t="shared" si="9"/>
         <v>6175.9999999999964</v>
       </c>
       <c r="J20" s="5">
-        <f>J19*(1+J$6)</f>
+        <f t="shared" si="9"/>
         <v>579.99999999999989</v>
       </c>
       <c r="K20" s="5">
-        <f>K19*(1+K$6)</f>
+        <f t="shared" si="9"/>
         <v>433</v>
       </c>
       <c r="L20" s="5">
-        <f>L19*(1+L$6)</f>
+        <f t="shared" si="9"/>
         <v>96.999999999999972</v>
       </c>
       <c r="M20" s="5">
-        <f>M19*(1+M$6)</f>
+        <f t="shared" si="9"/>
         <v>305.99999999999994</v>
       </c>
       <c r="N20" s="5">
-        <f>N19*(1+N$6)</f>
+        <f t="shared" si="9"/>
         <v>277.99999999999977</v>
       </c>
       <c r="O20" s="5">
-        <f>O19*(1+O$6)</f>
+        <f t="shared" si="9"/>
         <v>237.00000000000014</v>
       </c>
       <c r="P20" s="5">
-        <f>P19*(1+P$6)</f>
+        <f t="shared" si="9"/>
         <v>94.999999999999972</v>
       </c>
+      <c r="R20" s="5">
+        <f t="shared" si="16"/>
+        <v>21286.000000000004</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="17"/>
+        <v>43887.952459543711</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="17"/>
+        <v>12077.835888581463</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="10"/>
+        <v>1716.6275199027446</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2031</v>
       </c>
       <c r="B21" s="4">
-        <f>B20*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>351.00661701902857</v>
       </c>
       <c r="C21" s="4">
-        <f>C20*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>33685.310369573024</v>
       </c>
       <c r="D21" s="4">
-        <f>D20*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>33162.064650677799</v>
       </c>
       <c r="E21" s="4">
-        <f>E20*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>28261.128557409225</v>
       </c>
       <c r="F21" s="4">
-        <f>F20*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>14037.652011225455</v>
       </c>
       <c r="G21" s="4">
-        <f>G20*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>9292651.2591394223</v>
       </c>
       <c r="H21" s="4">
-        <f>H20*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>851472.12434399547</v>
       </c>
       <c r="I21" s="4">
-        <f>I20*(1+I$7)</f>
+        <f t="shared" ref="I21:P21" si="18">I20*(1+I$7)</f>
         <v>6175.3328290649833</v>
       </c>
       <c r="J21" s="4">
-        <f>J20*(1+J$7)</f>
+        <f t="shared" si="18"/>
         <v>644.89937860043688</v>
       </c>
       <c r="K21" s="4">
-        <f>K20*(1+K$7)</f>
+        <f t="shared" si="18"/>
         <v>480.30791925314497</v>
       </c>
       <c r="L21" s="4">
-        <f>L20*(1+L$7)</f>
+        <f t="shared" si="18"/>
         <v>106.18822841344527</v>
       </c>
       <c r="M21" s="4">
-        <f>M20*(1+M$7)</f>
+        <f t="shared" si="18"/>
         <v>336.87512975181625</v>
       </c>
       <c r="N21" s="4">
-        <f>N20*(1+N$7)</f>
+        <f t="shared" si="18"/>
         <v>303.59852513826269</v>
       </c>
       <c r="O21" s="4">
-        <f>O20*(1+O$7)</f>
+        <f t="shared" si="18"/>
         <v>266.93176444174645</v>
       </c>
       <c r="P21" s="4">
-        <f>P20*(1+P$7)</f>
+        <f t="shared" si="18"/>
         <v>109.25921997003184</v>
       </c>
+      <c r="R21" s="4">
+        <f t="shared" si="16"/>
+        <v>22866.945636762015</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="17"/>
+        <v>51738.987606393966</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="17"/>
+        <v>13873.790217137681</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="10"/>
+        <v>2425.0783289817232</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2032</v>
       </c>
       <c r="B22" s="5">
-        <f>B21*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>412.00000000000074</v>
       </c>
       <c r="C22" s="4">
-        <f>C21*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>34492.80405257261</v>
       </c>
       <c r="D22" s="4">
-        <f>D21*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>35511.227244449787</v>
       </c>
       <c r="E22" s="4">
-        <f>E21*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>32104.537306539703</v>
       </c>
       <c r="F22" s="4">
-        <f>F21*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>14523.927356665497</v>
       </c>
       <c r="G22" s="4">
-        <f>G21*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>10572155.659155918</v>
       </c>
       <c r="H22" s="4">
-        <f>H21*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>950202.85522264347</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" ref="I22:P35" si="4">I21*(1+I$7)</f>
+        <f t="shared" ref="I22:P35" si="19">I21*(1+I$7)</f>
         <v>6174.6657302020321</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>717.06070434349942</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>532.78452031705683</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>116.24680261428897</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>370.86553282778772</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>331.5541887270806</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>300.64374205900413</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>125.65870682589271</v>
       </c>
+      <c r="R22" s="4">
+        <f t="shared" si="16"/>
+        <v>24565.310662154901</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="17"/>
+        <v>60994.479999999974</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="17"/>
+        <v>15936.800000000012</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="10"/>
+        <v>3425.9062222362459</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2033</v>
       </c>
       <c r="B23" s="4">
-        <f>B22*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>483.59202296975081</v>
       </c>
       <c r="C23" s="4">
-        <f>C22*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>35319.654720588231</v>
       </c>
       <c r="D23" s="4">
-        <f>D22*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>38026.801819807028</v>
       </c>
       <c r="E23" s="4">
-        <f>E22*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>36470.635402023974</v>
       </c>
       <c r="F23" s="4">
-        <f>F22*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>15027.047663883603</v>
       </c>
       <c r="G23" s="4">
-        <f>G22*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>12027834.916487914</v>
       </c>
       <c r="H23" s="4">
-        <f>H22*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>1060381.7086424048</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6173.9987034033575</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>797.29655629295587</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>590.99451354219514</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>127.25816524060626</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>408.2855375550244</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>362.08403849264374</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>338.61335247333005</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>144.51970831831534</v>
       </c>
+      <c r="R23" s="4">
+        <f t="shared" si="16"/>
+        <v>26389.816004024538</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="17"/>
+        <v>71905.670415758854</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="17"/>
+        <v>18306.575943916763</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="10"/>
+        <v>4839.7749892413804</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2034</v>
       </c>
       <c r="B24" s="4">
-        <f>B23*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>567.6243802912029</v>
       </c>
       <c r="C24" s="4">
-        <f>C23*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>36166.326393186602</v>
       </c>
       <c r="D24" s="4">
-        <f>D23*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>40720.576810503975</v>
       </c>
       <c r="E24" s="4">
-        <f>E23*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>41430.506657899132</v>
       </c>
       <c r="F24" s="4">
-        <f>F23*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>15547.596455651314</v>
       </c>
       <c r="G24" s="4">
-        <f>G23*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>13683946.532985136</v>
       </c>
       <c r="H24" s="4">
-        <f>H23*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>1183336.1285363887</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6173.331748661175</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>886.51043743723369</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>655.56430736599623</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>139.31256822727283</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>449.48118771123825</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>395.4251081383909</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>381.37831071409681</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>166.21169053848064</v>
       </c>
+      <c r="R24" s="4">
+        <f t="shared" si="16"/>
+        <v>28349.830307628545</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="17"/>
+        <v>84768.743629583216</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="17"/>
+        <v>21028.73367240548</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="10"/>
+        <v>6837.1462693444264</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2035</v>
       </c>
       <c r="B25" s="4">
-        <f>B24*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>666.25879211644053</v>
       </c>
       <c r="C25" s="4">
-        <f>C24*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>37033.294213265784</v>
       </c>
       <c r="D25" s="4">
-        <f>D24*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>43605.175729410548</v>
       </c>
       <c r="E25" s="4">
-        <f>E24*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>47064.902023477393</v>
       </c>
       <c r="F25" s="4">
-        <f>F24*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>16086.177468429549</v>
       </c>
       <c r="G25" s="4">
-        <f>G24*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>15568088.023964364</v>
       </c>
       <c r="H25" s="4">
-        <f>H24*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>1320547.4799185831</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6172.6648659677003</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>985.70694866564406</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>727.18874920921667</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>152.50881253382815</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>494.83344258569895</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>431.83625767429356</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>429.54424218871907</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>191.15957534878652</v>
       </c>
+      <c r="R25" s="4">
+        <f t="shared" si="16"/>
+        <v>30455.418042655732</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="17"/>
+        <v>99932.868367543619</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="17"/>
+        <v>24155.671777162937</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="10"/>
+        <v>9658.8310845702745</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2036</v>
       </c>
       <c r="B26" s="4">
-        <f>B25*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>782.03261432274655</v>
       </c>
       <c r="C26" s="4">
-        <f>C25*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>37921.044713700212</v>
       </c>
       <c r="D26" s="4">
-        <f>D25*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>46694.116324558076</v>
       </c>
       <c r="E26" s="4">
-        <f>E25*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>53465.55427791745</v>
       </c>
       <c r="F26" s="4">
-        <f>F25*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>16643.415352586755</v>
       </c>
       <c r="G26" s="4">
-        <f>G25*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>17711656.804393474</v>
       </c>
       <c r="H26" s="4">
-        <f>H25*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>1473668.8964919874</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6171.9980553151499</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1096.0031011665633</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>806.6386028567573</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>166.95505794232426</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>544.7616999235139</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>471.60018320554826</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>483.79325938070707</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>219.85206413064154</v>
       </c>
+      <c r="R26" s="4">
+        <f t="shared" si="16"/>
+        <v>32717.391183231677</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="17"/>
+        <v>117809.67550732473</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="17"/>
+        <v>27747.580434275373</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="10"/>
+        <v>13645.02297377445</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2037</v>
       </c>
       <c r="B27" s="4">
-        <f>B26*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>917.92411162295946</v>
       </c>
       <c r="C27" s="4">
-        <f>C26*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>38830.076090377595</v>
       </c>
       <c r="D27" s="4">
-        <f>D26*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>50001.87392573167</v>
       </c>
       <c r="E27" s="4">
-        <f>E26*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>60736.671518385367</v>
       </c>
       <c r="F27" s="4">
-        <f>F26*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>17219.956396873171</v>
       </c>
       <c r="G27" s="4">
-        <f>G26*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>20150373.396766949</v>
       </c>
       <c r="H27" s="4">
-        <f>H26*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>1644545.1977401113</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6171.3313166957414</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1218.6408946318422</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>894.76884278843659</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>182.76970956246933</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>599.72767433187505</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>515.02561178467283</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>544.89362173635266</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>252.8512109022665</v>
       </c>
+      <c r="R27" s="4">
+        <f t="shared" si="16"/>
+        <v>35147.364726281849</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="17"/>
+        <v>138884.43181771849</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="17"/>
+        <v>31873.600000000039</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="10"/>
+        <v>19276.313078117782</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2038</v>
       </c>
       <c r="B28" s="4">
-        <f>B27*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>1077.4290729914019</v>
       </c>
       <c r="C28" s="4">
-        <f>C27*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>39760.898481781041</v>
       </c>
       <c r="D28" s="4">
-        <f>D27*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>53543.949278462489</v>
       </c>
       <c r="E28" s="4">
-        <f>E27*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>68996.633757070493</v>
       </c>
       <c r="F28" s="4">
-        <f>F27*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>17816.469277991455</v>
       </c>
       <c r="G28" s="4">
-        <f>G27*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>22924876.679431442</v>
       </c>
       <c r="H28" s="4">
-        <f>H27*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>1835235.1154645998</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6170.664650101694</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1355.0013029054408</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>992.52785471653203</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>200.08238831008816</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>660.23966701407005</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>562.44969836783548</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>613.71061554066705</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>290.80343233325954</v>
       </c>
+      <c r="R28" s="4">
+        <f t="shared" si="16"/>
+        <v>37757.81633333335</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="17"/>
+        <v>163729.21254783717</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="17"/>
+        <v>36613.151887833541</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="10"/>
+        <v>27231.632119621871</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2039</v>
       </c>
       <c r="B29" s="4">
-        <f>B28*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>1264.6507403260546</v>
       </c>
       <c r="C29" s="4">
-        <f>C28*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>40714.034255273189</v>
       </c>
       <c r="D29" s="4">
-        <f>D28*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>57336.9411833021</v>
       </c>
       <c r="E29" s="4">
-        <f>E28*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>78379.920249108094</v>
       </c>
       <c r="F29" s="4">
-        <f>F28*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>18433.645836133026</v>
       </c>
       <c r="G29" s="4">
-        <f>G28*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>26081401.094605129</v>
       </c>
       <c r="H29" s="4">
-        <f>H28*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>2048036.0975561489</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6169.9980555252268</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1506.619824562933</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1100.9676413387651</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>219.03499331318866</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>726.85726631588511</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>614.24064348538025</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>691.21880786033955</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>334.45217032989348</v>
       </c>
+      <c r="R29" s="4">
+        <f t="shared" si="16"/>
+        <v>40562.150402009698</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="17"/>
+        <v>193018.43043659875</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="17"/>
+        <v>42057.467344810975</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="10"/>
+        <v>38470.104988086794</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2040</v>
       </c>
       <c r="B30" s="4">
-        <f>B29*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>1484.4053637487104</v>
       </c>
       <c r="C30" s="4">
-        <f>C29*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>41690.018300243079</v>
       </c>
       <c r="D30" s="4">
-        <f>D29*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>61398.624280779717</v>
       </c>
       <c r="E30" s="4">
-        <f>E29*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>89039.298929956756</v>
       </c>
       <c r="F30" s="4">
-        <f>F29*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>19072.20187737959</v>
       </c>
       <c r="G30" s="4">
-        <f>G29*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>29672547.101114448</v>
       </c>
       <c r="H30" s="4">
-        <f>H29*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>2285511.9878365947</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6169.3315329585594</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1675.2037735305773</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1221.2551431327138</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>239.78286495338497</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>800.19652255298786</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>670.8005519501404</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>778.5158480906365</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>384.652455237141</v>
       </c>
+      <c r="R30" s="4">
+        <f t="shared" si="16"/>
+        <v>43574.766896219116</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="17"/>
+        <v>227547.14267817602</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="17"/>
+        <v>48311.343554325889</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="10"/>
+        <v>54346.686650780532</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2041</v>
       </c>
       <c r="B31" s="4">
-        <f>B30*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>1742.3460989378311</v>
       </c>
       <c r="C31" s="4">
-        <f>C30*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>42689.398328280215</v>
       </c>
       <c r="D31" s="4">
-        <f>D30*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>65748.032346556472</v>
       </c>
       <c r="E31" s="4">
-        <f>E30*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>101148.31360814522</v>
       </c>
       <c r="F31" s="4">
-        <f>F30*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>19732.878003900507</v>
       </c>
       <c r="G31" s="4">
-        <f>G30*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>33758157.710705824</v>
       </c>
       <c r="H31" s="4">
-        <f>H30*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>2550523.9154611984</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6168.6650823939135</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1862.6515044465111</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1354.6847960168025</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>262.49605807526137</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>880.9356449738234</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>732.56855479854448</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>876.83801255989931</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>442.38765493439604</v>
       </c>
+      <c r="R31" s="4">
+        <f t="shared" si="16"/>
+        <v>46811.135288472207</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="17"/>
+        <v>268252.63278684544</v>
+      </c>
+      <c r="T31" s="4">
+        <f t="shared" si="17"/>
+        <v>55495.160868550767</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="10"/>
+        <v>76775.52090987975</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2042</v>
       </c>
       <c r="B32" s="4">
-        <f>B31*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>2045.1084337349464</v>
       </c>
       <c r="C32" s="4">
-        <f>C31*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>43712.735180544354</v>
       </c>
       <c r="D32" s="4">
-        <f>D31*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>70405.547487112839</v>
       </c>
       <c r="E32" s="4">
-        <f>E31*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>114904.10940701536</v>
       </c>
       <c r="F32" s="4">
-        <f>F31*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>20416.440472908831</v>
       </c>
       <c r="G32" s="4">
-        <f>G31*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>38406315.714571238</v>
       </c>
       <c r="H32" s="4">
-        <f>H31*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>2846264.7660392048</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6167.9987038235113</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2071.0737892529723</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1502.6924610131675</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>287.36073579922532</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>969.82127354103511</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>800.02421870326214</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>987.57771232999164</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>508.78873792109192</v>
       </c>
+      <c r="R32" s="4">
+        <f t="shared" si="16"/>
+        <v>50287.873994015114</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="17"/>
+        <v>316239.85320197017</v>
+      </c>
+      <c r="T32" s="4">
+        <f t="shared" si="17"/>
+        <v>63747.200000000099</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="10"/>
+        <v>108460.71718888728</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2043</v>
       </c>
       <c r="B33" s="4">
-        <f>B32*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>2400.4808851028629</v>
       </c>
       <c r="C33" s="4">
-        <f>C32*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>44760.603142503431</v>
       </c>
       <c r="D33" s="4">
-        <f>D32*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>75392.995653956168</v>
       </c>
       <c r="E33" s="4">
-        <f>E32*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>130530.6424560711</v>
       </c>
       <c r="F33" s="4">
-        <f>F32*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>21123.682085372278</v>
       </c>
       <c r="G33" s="4">
-        <f>G32*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>43694478.217913419</v>
       </c>
       <c r="H33" s="4">
-        <f>H32*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>3176297.6497835759</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6167.3323972395747</v>
       </c>
       <c r="J33" s="4">
-        <f>J32*(1+J$7)</f>
+        <f t="shared" ref="J33:P33" si="20">J32*(1+J$7)</f>
         <v>2302.8175857325764</v>
       </c>
       <c r="K33" s="4">
-        <f>K32*(1+K$7)</f>
+        <f t="shared" si="20"/>
         <v>1666.8708758120604</v>
       </c>
       <c r="L33" s="4">
-        <f>L32*(1+L$7)</f>
+        <f t="shared" si="20"/>
         <v>314.58069536189532</v>
       </c>
       <c r="M33" s="4">
-        <f>M32*(1+M$7)</f>
+        <f t="shared" si="20"/>
         <v>1067.6753835300913</v>
       </c>
       <c r="N33" s="4">
-        <f>N32*(1+N$7)</f>
+        <f t="shared" si="20"/>
         <v>873.69126932806296</v>
       </c>
       <c r="O33" s="4">
-        <f>O32*(1+O$7)</f>
+        <f t="shared" si="20"/>
         <v>1112.3032121332828</v>
       </c>
       <c r="P33" s="4">
-        <f>P32*(1+P$7)</f>
+        <f t="shared" si="20"/>
         <v>585.15642773468926</v>
       </c>
+      <c r="R33" s="4">
+        <f t="shared" si="16"/>
+        <v>54022.835704664176</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="17"/>
+        <v>372811.41927382344</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="17"/>
+        <v>73226.303775667111</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="10"/>
+        <v>153222.36871484373</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2044</v>
       </c>
       <c r="B34" s="4">
-        <f>B33*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>2817.6053575900714</v>
       </c>
       <c r="C34" s="4">
-        <f>C33*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>45833.590266216292</v>
       </c>
       <c r="D34" s="4">
-        <f>D33*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>80733.748923944979</v>
       </c>
       <c r="E34" s="4">
-        <f>E33*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>148282.32608845597</v>
       </c>
       <c r="F34" s="4">
-        <f>F33*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>21855.423105509828</v>
       </c>
       <c r="G34" s="4">
-        <f>G33*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>49710767.388483524</v>
       </c>
       <c r="H34" s="4">
-        <f>H33*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>3544598.8301573568</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6166.6661626343275</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2560.4924656363742</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1848.9867945149149</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>344.37903849019995</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1175.4028867958161</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>954.14165753301006</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1252.7808397002498</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>672.9866826814997</v>
       </c>
+      <c r="R34" s="4">
+        <f t="shared" si="16"/>
+        <v>58035.199060522478</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="17"/>
+        <v>439502.96881840535</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="17"/>
+        <v>84114.934689621994</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="10"/>
+        <v>216457.11814445708</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2045</v>
       </c>
       <c r="B35" s="4">
-        <f>B34*(1+B$6)</f>
+        <f t="shared" si="8"/>
         <v>3307.2123174936614</v>
       </c>
       <c r="C35" s="4">
-        <f>C34*(1+C$6)</f>
+        <f t="shared" si="11"/>
         <v>46932.298700341082</v>
       </c>
       <c r="D35" s="4">
-        <f>D34*(1+D$6)</f>
+        <f t="shared" si="12"/>
         <v>86452.835025034117</v>
       </c>
       <c r="E35" s="4">
-        <f>E34*(1+E$6)</f>
+        <f t="shared" si="13"/>
         <v>168448.17290777474</v>
       </c>
       <c r="F35" s="4">
-        <f>F34*(1+F$6)</f>
+        <f t="shared" si="14"/>
         <v>22612.512212140438</v>
       </c>
       <c r="G35" s="4">
-        <f>G34*(1+G$6)</f>
+        <f t="shared" si="7"/>
         <v>56555438.928180538</v>
       </c>
       <c r="H35" s="4">
-        <f>H34*(1+H$6)</f>
+        <f t="shared" si="15"/>
         <v>3955605.630224545</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>6165.9999999999945</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2846.9999999999973</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2051.0000000000027</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>377.00000000000023</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1294</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1041.999999999998</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1411.0000000000009</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>774.00000000000011</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="16"/>
+        <v>62345.567130302981</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="17"/>
+        <v>518124.84707802755</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="17"/>
+        <v>96622.687108651822</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="10"/>
+        <v>305788.79825700284</v>
       </c>
     </row>
   </sheetData>
@@ -21458,8 +27331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
